--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD9F497-54E7-48F4-8337-C43EC35C0AF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hillclimber" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulated annealing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>runtime</t>
   </si>
@@ -131,6 +132,21 @@
   </si>
   <si>
     <t>pickled_schedule_hillclimber_21_06_2022_14_23.pickle</t>
+  </si>
+  <si>
+    <t>simulated annealing lessons -&gt; temperature</t>
+  </si>
+  <si>
+    <t>simulated annealing lessons -&gt; repeats</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -490,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,8 +786,173 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD9F497-54E7-48F4-8337-C43EC35C0AF2}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567D9E0B-E721-489D-AFB3-97A1DD47F791}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hillclimber" sheetId="1" r:id="rId1"/>
     <sheet name="Simulated annealing" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>runtime</t>
   </si>
@@ -56,9 +59,6 @@
     <t>intermediate minimum</t>
   </si>
   <si>
-    <t>hillclimber lessons -&gt; r</t>
-  </si>
-  <si>
     <t>hillclimber students outer -&gt; 0</t>
   </si>
   <si>
@@ -140,13 +140,37 @@
     <t>simulated annealing lessons -&gt; repeats</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>210m</t>
+  </si>
+  <si>
+    <t>hillclimber_22_06_2022_10_20_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_22_06_2022_10_20.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_22_06_2022_10_21_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_22_06_2022_10_21.pickle</t>
+  </si>
+  <si>
+    <t>217m</t>
+  </si>
+  <si>
+    <t>lessons -&gt; r</t>
+  </si>
+  <si>
+    <t>sa temperature</t>
+  </si>
+  <si>
+    <t>students outer -&gt; 0</t>
+  </si>
+  <si>
+    <t>students inner -&gt; i</t>
+  </si>
+  <si>
+    <t>lessons minimum</t>
   </si>
 </sst>
 </file>
@@ -506,309 +530,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>318</v>
+      </c>
+      <c r="G2">
+        <v>292</v>
+      </c>
+      <c r="H2">
+        <v>530</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>500</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>319</v>
+      </c>
+      <c r="G3">
+        <v>303</v>
+      </c>
+      <c r="H3">
+        <v>538</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="C4">
         <v>300</v>
       </c>
-      <c r="C2">
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>326</v>
+      </c>
+      <c r="G4">
+        <v>273</v>
+      </c>
+      <c r="H4">
+        <v>541</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>338</v>
-      </c>
-      <c r="F2">
-        <v>312</v>
-      </c>
-      <c r="G2">
-        <v>543</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>500</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
+      <c r="F5">
         <v>326</v>
       </c>
-      <c r="F3">
-        <v>273</v>
-      </c>
-      <c r="G3">
-        <v>541</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>500</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>349</v>
-      </c>
-      <c r="F4">
-        <v>311</v>
-      </c>
-      <c r="G4">
-        <v>562</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>500</v>
-      </c>
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>336</v>
-      </c>
-      <c r="F5">
-        <v>295</v>
-      </c>
       <c r="G5">
-        <v>567</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+        <v>302</v>
+      </c>
+      <c r="H5">
+        <v>531</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>300</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>332</v>
+      </c>
+      <c r="G6">
+        <v>311</v>
+      </c>
+      <c r="H6">
+        <v>525</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+      <c r="F7">
         <v>336</v>
       </c>
-      <c r="F6">
-        <v>313</v>
-      </c>
-      <c r="G6">
-        <v>527</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>332</v>
-      </c>
-      <c r="F7">
-        <v>311</v>
-      </c>
       <c r="G7">
-        <v>525</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
+        <v>295</v>
+      </c>
+      <c r="H7">
+        <v>567</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000</v>
       </c>
-      <c r="B8">
-        <v>500</v>
-      </c>
       <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>326</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="G8">
-        <v>531</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
+        <v>313</v>
+      </c>
+      <c r="H8">
+        <v>527</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1000</v>
-      </c>
-      <c r="B9">
         <v>500</v>
       </c>
       <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>318</v>
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="G9">
-        <v>530</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
+        <v>312</v>
+      </c>
+      <c r="H9">
+        <v>543</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>343</v>
+      </c>
+      <c r="G10">
+        <v>305</v>
+      </c>
+      <c r="H10">
+        <v>562</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>500</v>
       </c>
-      <c r="B11">
-        <v>800</v>
-      </c>
       <c r="C11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>349</v>
+      </c>
+      <c r="G11">
+        <v>311</v>
+      </c>
+      <c r="H11">
+        <v>562</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>800</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>30000</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30000</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30000</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J11" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+    <sortCondition ref="F2:F11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -818,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,16 +990,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -872,11 +1024,11 @@
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2">
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -886,11 +1038,11 @@
       <c r="A3">
         <v>10000</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -900,11 +1052,11 @@
       <c r="A4">
         <v>10000</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -914,11 +1066,11 @@
       <c r="A5">
         <v>30000</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="B5">
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -928,11 +1080,11 @@
       <c r="A6">
         <v>30000</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -942,11 +1094,11 @@
       <c r="A7">
         <v>30000</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>50</v>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567D9E0B-E721-489D-AFB3-97A1DD47F791}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CE5B60-AE7D-4B08-9AD3-6D3A9C48E9B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Simulated annealing" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>runtime</t>
   </si>
@@ -158,9 +158,6 @@
     <t>217m</t>
   </si>
   <si>
-    <t>lessons -&gt; r</t>
-  </si>
-  <si>
     <t>sa temperature</t>
   </si>
   <si>
@@ -171,13 +168,106 @@
   </si>
   <si>
     <t>lessons minimum</t>
+  </si>
+  <si>
+    <t>126m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_16_11_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_16_11.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_19_47_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_19_47.pickle</t>
+  </si>
+  <si>
+    <t>124m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_19_45_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_19_45.pickle</t>
+  </si>
+  <si>
+    <t>130m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_22_07_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_22_07.pickle</t>
+  </si>
+  <si>
+    <t>155m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_22_08_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_22_08.pickle</t>
+  </si>
+  <si>
+    <t>169m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_22_06_2022_22_09_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_22_06_2022_22_09.pickle</t>
+  </si>
+  <si>
+    <t>163m</t>
+  </si>
+  <si>
+    <t>2 (alleen vrijdagavondslot)</t>
+  </si>
+  <si>
+    <t>2 (passende vakken)</t>
+  </si>
+  <si>
+    <t>2 (combi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iteraties -&gt; r</t>
+  </si>
+  <si>
+    <t>simulated_annealing_23_06_2022_13_48_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_23_06_2022_13_48.pickle</t>
+  </si>
+  <si>
+    <t>125m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_23_06_2022_14_25_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_23_06_2022_14_25.pickle</t>
+  </si>
+  <si>
+    <t>139m</t>
+  </si>
+  <si>
+    <t>137m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_23_06_2022_14_30_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_23_06_2022_14_30.pickle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +278,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,9 +309,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -530,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,23 +643,23 @@
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -573,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -584,27 +682,27 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="H2">
-        <v>530</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
@@ -613,25 +711,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G3">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="H3">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -645,22 +743,22 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G4">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="H4">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -671,25 +769,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G5">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H5">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -706,19 +804,19 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G6">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H6">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -729,25 +827,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G7">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H7">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
@@ -761,22 +859,22 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H8">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -787,25 +885,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G9">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="H9">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
@@ -845,25 +943,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="G11">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H11">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -885,6 +983,24 @@
       <c r="D12">
         <v>50</v>
       </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>328</v>
+      </c>
+      <c r="G12">
+        <v>305</v>
+      </c>
+      <c r="H12">
+        <v>549</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -899,6 +1015,24 @@
       <c r="D13">
         <v>50</v>
       </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>332</v>
+      </c>
+      <c r="G13">
+        <v>311</v>
+      </c>
+      <c r="H13">
+        <v>533</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -913,6 +1047,24 @@
       <c r="D14">
         <v>50</v>
       </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>333</v>
+      </c>
+      <c r="G14">
+        <v>307</v>
+      </c>
+      <c r="H14">
+        <v>576</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -927,6 +1079,24 @@
       <c r="D15">
         <v>50</v>
       </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>312</v>
+      </c>
+      <c r="G15">
+        <v>294</v>
+      </c>
+      <c r="H15">
+        <v>495</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -941,8 +1111,26 @@
       <c r="D16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>306</v>
+      </c>
+      <c r="G16">
+        <v>283</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>30000</v>
       </c>
@@ -955,11 +1143,126 @@
       <c r="D17">
         <v>50</v>
       </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>312</v>
+      </c>
+      <c r="G17">
+        <v>292</v>
+      </c>
+      <c r="H17">
+        <v>522</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>308</v>
+      </c>
+      <c r="G20">
+        <v>295</v>
+      </c>
+      <c r="H20">
+        <v>489</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>349</v>
+      </c>
+      <c r="G21">
+        <v>321</v>
+      </c>
+      <c r="H21">
+        <v>537</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>309</v>
+      </c>
+      <c r="G22">
+        <v>284</v>
+      </c>
+      <c r="H22">
+        <v>506</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J11" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}"/>
+  <autoFilter ref="A1:J17" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
-    <sortCondition ref="F2:F11"/>
+    <sortCondition ref="A2:A11"/>
+    <sortCondition ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CE5B60-AE7D-4B08-9AD3-6D3A9C48E9B3}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F611C61-3464-4ED7-91D2-D193364B359F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Simulated annealing" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -631,7 +631,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A20" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1259,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J17" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}"/>
+  <autoFilter ref="A1:J11" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="A2:A11"/>
     <sortCondition ref="C2:C11"/>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F611C61-3464-4ED7-91D2-D193364B359F}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B50FB69-1E39-4527-82D4-64A10412D919}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hillclimber" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulated annealing" sheetId="2" r:id="rId2"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hillclimber!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">new!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">old!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>runtime</t>
   </si>
@@ -56,15 +57,6 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>intermediate minimum</t>
-  </si>
-  <si>
-    <t>hillclimber students outer -&gt; 0</t>
-  </si>
-  <si>
-    <t>hillclimber students inner -&gt; i</t>
-  </si>
-  <si>
     <t>hillclimber_21_06_2022_10_59_schedule.html</t>
   </si>
   <si>
@@ -134,12 +126,6 @@
     <t>pickled_schedule_hillclimber_21_06_2022_14_23.pickle</t>
   </si>
   <si>
-    <t>simulated annealing lessons -&gt; temperature</t>
-  </si>
-  <si>
-    <t>simulated annealing lessons -&gt; repeats</t>
-  </si>
-  <si>
     <t>210m</t>
   </si>
   <si>
@@ -261,6 +247,210 @@
   </si>
   <si>
     <t>pickled_schedule_simulated_annealing_23_06_2022_14_30.pickle</t>
+  </si>
+  <si>
+    <t>2 (geen avondslot)</t>
+  </si>
+  <si>
+    <t>54m</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_19_26_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_19_26.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_19_29_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_19_29.pickle</t>
+  </si>
+  <si>
+    <t>89m</t>
+  </si>
+  <si>
+    <t>66m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_19_30.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_19_30_schedule.html</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_20_26_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_20_26.pickle</t>
+  </si>
+  <si>
+    <t>118m</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_21_02_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_21_02.pickle</t>
+  </si>
+  <si>
+    <t>65m</t>
+  </si>
+  <si>
+    <t>106m</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_21_05_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_21_05.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_22_30_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_22_30.pickle</t>
+  </si>
+  <si>
+    <t>64m</t>
+  </si>
+  <si>
+    <t>hillclimber_24_06_2022_22_32_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_22_32.pickle</t>
+  </si>
+  <si>
+    <t>109m</t>
+  </si>
+  <si>
+    <t>110m</t>
+  </si>
+  <si>
+    <t>hillclimber_25_06_2022_00_27_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_25_06_2022_00_27.pickle</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_25_06_2022_00_28.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_25_06_2022_00_28_schedule.html</t>
+  </si>
+  <si>
+    <t>108m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_07_09_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_09.pickle</t>
+  </si>
+  <si>
+    <t>149m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_07_08_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_08.pickle</t>
+  </si>
+  <si>
+    <t>174m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_07_10_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_10.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_10_16_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_16.pickle</t>
+  </si>
+  <si>
+    <t>177m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_10_17_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_17.pickle</t>
+  </si>
+  <si>
+    <t>178m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_10_10_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_10.pickle</t>
+  </si>
+  <si>
+    <t>187m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_13_38_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_38.pickle</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>6 (geen avondslot)</t>
+  </si>
+  <si>
+    <t>6 (passende vakken)</t>
+  </si>
+  <si>
+    <t>6 (combi)</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_13_36_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_36.pickle</t>
+  </si>
+  <si>
+    <t>216m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_13_37_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_37.pickle</t>
+  </si>
+  <si>
+    <t>227m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_17_18_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_18.pickle</t>
+  </si>
+  <si>
+    <t>253m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_17_14_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_14.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_17_28_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_28.pickle</t>
+  </si>
+  <si>
+    <t>245m</t>
   </si>
 </sst>
 </file>
@@ -630,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A674BF-2D24-4795-A0A9-18E8DB2C376C}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,16 +840,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -671,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -691,7 +881,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>338</v>
@@ -703,10 +893,10 @@
         <v>543</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -720,7 +910,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>326</v>
@@ -732,10 +922,10 @@
         <v>541</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -749,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>349</v>
@@ -761,10 +951,10 @@
         <v>562</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -778,7 +968,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>336</v>
@@ -790,10 +980,10 @@
         <v>567</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -807,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>336</v>
@@ -819,10 +1009,10 @@
         <v>527</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -836,7 +1026,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>332</v>
@@ -848,10 +1038,10 @@
         <v>525</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -865,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>326</v>
@@ -877,10 +1067,10 @@
         <v>531</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -894,7 +1084,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>318</v>
@@ -906,10 +1096,10 @@
         <v>530</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -923,7 +1113,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>343</v>
@@ -935,10 +1125,10 @@
         <v>562</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,7 +1142,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>319</v>
@@ -964,10 +1154,10 @@
         <v>538</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -984,7 +1174,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>328</v>
@@ -996,10 +1186,10 @@
         <v>549</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1016,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>332</v>
@@ -1028,10 +1218,10 @@
         <v>533</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,7 +1238,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>333</v>
@@ -1060,10 +1250,10 @@
         <v>576</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,7 +1270,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>312</v>
@@ -1092,10 +1282,10 @@
         <v>495</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,7 +1302,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>306</v>
@@ -1124,10 +1314,10 @@
         <v>500</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,7 +1334,7 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>312</v>
@@ -1156,10 +1346,10 @@
         <v>522</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1167,7 +1357,7 @@
         <v>30000</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>500</v>
@@ -1176,7 +1366,7 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>308</v>
@@ -1188,10 +1378,10 @@
         <v>489</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,7 +1389,7 @@
         <v>30000</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>500</v>
@@ -1208,7 +1398,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>349</v>
@@ -1220,10 +1410,10 @@
         <v>537</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,7 +1421,7 @@
         <v>30000</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -1240,7 +1430,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>309</v>
@@ -1252,10 +1442,10 @@
         <v>506</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1271,38 +1461,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1314,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1325,89 +1515,680 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10000</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>190</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D3">
         <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>126</v>
+      </c>
+      <c r="G3">
+        <v>94</v>
+      </c>
+      <c r="H3">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
+      <c r="G4">
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>30000</v>
-      </c>
-      <c r="B5">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5">
         <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>88</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>30000</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>94</v>
+      </c>
+      <c r="H6">
+        <v>194</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>109</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>198</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <v>107</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>157</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>201</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>800</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>103</v>
+      </c>
+      <c r="G14">
+        <v>87</v>
+      </c>
+      <c r="H14">
+        <v>201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>30000</v>
       </c>
-      <c r="B7">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30000</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="H16">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30000</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
+      <c r="C17">
+        <v>800</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17">
+        <v>94</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>188</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>800</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+      <c r="H21">
+        <v>161</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>800</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>800</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23">
+        <v>93</v>
+      </c>
+      <c r="G23">
+        <v>77</v>
+      </c>
+      <c r="H23">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>30000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>800</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
+        <v>98</v>
+      </c>
+      <c r="G24">
+        <v>84</v>
+      </c>
+      <c r="H24">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>800</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>79</v>
+      </c>
+      <c r="H25">
+        <v>188</v>
+      </c>
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B50FB69-1E39-4527-82D4-64A10412D919}"/>
+  <xr:revisionPtr revIDLastSave="614" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F30F5B-6F46-4ED2-851B-0469C6966AE6}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">new!$A$1:$J$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
   <si>
     <t>runtime</t>
   </si>
@@ -255,21 +256,30 @@
     <t>54m</t>
   </si>
   <si>
+    <t>6 (geen avondslot)</t>
+  </si>
+  <si>
+    <t>6 (passende vakken)</t>
+  </si>
+  <si>
+    <t>6 (combi)</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_19_26.pickle</t>
+  </si>
+  <si>
     <t>hillclimber_24_06_2022_19_26_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_19_26.pickle</t>
+    <t>89m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_19_29.pickle</t>
   </si>
   <si>
     <t>hillclimber_24_06_2022_19_29_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_19_29.pickle</t>
-  </si>
-  <si>
-    <t>89m</t>
-  </si>
-  <si>
     <t>66m</t>
   </si>
   <si>
@@ -279,58 +289,61 @@
     <t>hillclimber_24_06_2022_19_30_schedule.html</t>
   </si>
   <si>
+    <t>118m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_20_26.pickle</t>
+  </si>
+  <si>
     <t>hillclimber_24_06_2022_20_26_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_20_26.pickle</t>
-  </si>
-  <si>
-    <t>118m</t>
+    <t>65m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_21_02.pickle</t>
   </si>
   <si>
     <t>hillclimber_24_06_2022_21_02_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_21_02.pickle</t>
-  </si>
-  <si>
-    <t>65m</t>
-  </si>
-  <si>
     <t>106m</t>
   </si>
   <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_21_05.pickle</t>
+  </si>
+  <si>
     <t>hillclimber_24_06_2022_21_05_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_21_05.pickle</t>
+    <t>64m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_22_30.pickle</t>
   </si>
   <si>
     <t>hillclimber_24_06_2022_22_30_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_22_30.pickle</t>
-  </si>
-  <si>
-    <t>64m</t>
+    <t>109m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_24_06_2022_22_32.pickle</t>
   </si>
   <si>
     <t>hillclimber_24_06_2022_22_32_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_24_06_2022_22_32.pickle</t>
-  </si>
-  <si>
-    <t>109m</t>
-  </si>
-  <si>
     <t>110m</t>
   </si>
   <si>
+    <t>pickled_schedule_hillclimber_25_06_2022_00_27.pickle</t>
+  </si>
+  <si>
     <t>hillclimber_25_06_2022_00_27_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_hillclimber_25_06_2022_00_27.pickle</t>
+    <t>108m</t>
   </si>
   <si>
     <t>pickled_schedule_hillclimber_25_06_2022_00_28.pickle</t>
@@ -339,118 +352,226 @@
     <t>hillclimber_25_06_2022_00_28_schedule.html</t>
   </si>
   <si>
-    <t>108m</t>
+    <t>174m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_08.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_07_08_schedule.html</t>
+  </si>
+  <si>
+    <t>149m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_09.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_07_09_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_07_09.pickle</t>
-  </si>
-  <si>
-    <t>149m</t>
-  </si>
-  <si>
-    <t>simulated_annealing_25_06_2022_07_08_schedule.html</t>
-  </si>
-  <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_07_08.pickle</t>
-  </si>
-  <si>
-    <t>174m</t>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_07_10.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_07_10_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_07_10.pickle</t>
+    <t>187m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_10.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_10_10_schedule.html</t>
+  </si>
+  <si>
+    <t>177m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_16.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_10_16_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_10_16.pickle</t>
-  </si>
-  <si>
-    <t>177m</t>
+    <t>178m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_10_17.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_10_17_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_10_17.pickle</t>
-  </si>
-  <si>
-    <t>178m</t>
-  </si>
-  <si>
-    <t>simulated_annealing_25_06_2022_10_10_schedule.html</t>
-  </si>
-  <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_10_10.pickle</t>
-  </si>
-  <si>
-    <t>187m</t>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_38.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_13_38_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_13_38.pickle</t>
-  </si>
-  <si>
-    <t>200m</t>
-  </si>
-  <si>
-    <t>6 (geen avondslot)</t>
-  </si>
-  <si>
-    <t>6 (passende vakken)</t>
-  </si>
-  <si>
-    <t>6 (combi)</t>
+    <t>216m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_36.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_13_36_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_13_36.pickle</t>
-  </si>
-  <si>
-    <t>216m</t>
+    <t>227m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_13_37.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_13_37_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_13_37.pickle</t>
-  </si>
-  <si>
-    <t>227m</t>
+    <t>253m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_14.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_25_06_2022_17_14_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_18.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_17_18_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_17_18.pickle</t>
-  </si>
-  <si>
-    <t>253m</t>
-  </si>
-  <si>
-    <t>simulated_annealing_25_06_2022_17_14_schedule.html</t>
-  </si>
-  <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_17_14.pickle</t>
+    <t>245m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_25_06_2022_17_28.pickle</t>
   </si>
   <si>
     <t>simulated_annealing_25_06_2022_17_28_schedule.html</t>
   </si>
   <si>
-    <t>pickled_schedule_simulated_annealing_25_06_2022_17_28.pickle</t>
-  </si>
-  <si>
-    <t>245m</t>
+    <t>44m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_14_41.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_14_41_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_14_42.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_14_42_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_14_43.pickle</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_14_43_schedule.html</t>
+  </si>
+  <si>
+    <t>47m</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_15_40_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_15_40.pickle</t>
+  </si>
+  <si>
+    <t>67m</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_15_41_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_15_41.pickle</t>
+  </si>
+  <si>
+    <t>73m</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_19_34_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_19_34.pickle</t>
+  </si>
+  <si>
+    <t>57m</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_19_35_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_19_35.pickle</t>
+  </si>
+  <si>
+    <t>94m</t>
+  </si>
+  <si>
+    <t>hillclimber_27_06_2022_20_18_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_hillclimber_27_06_2022_20_18.pickle</t>
+  </si>
+  <si>
+    <t>112m</t>
+  </si>
+  <si>
+    <t>113m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_27_06_2022_20_49_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_27_06_2022_20_49.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_27_06_2022_21_15_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_27_06_2022_21_15.pickle</t>
+  </si>
+  <si>
+    <t>141m</t>
+  </si>
+  <si>
+    <t>121m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_27_06_2022_22_13_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_27_06_2022_22_13.pickle</t>
+  </si>
+  <si>
+    <t>136m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_27_06_2022_22_47_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_27_06_2022_22_47.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_27_06_2022_23_17_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_27_06_2022_23_17.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_28_06_2022_00_36_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_28_06_2022_00_36.pickle</t>
+  </si>
+  <si>
+    <t>83m</t>
   </si>
 </sst>
 </file>
@@ -1463,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,11 +1656,11 @@
       <c r="H2">
         <v>190</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>72</v>
+      <c r="I2" t="s">
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1553,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>126</v>
@@ -1565,10 +1686,10 @@
         <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1582,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>111</v>
@@ -1593,11 +1714,11 @@
       <c r="H4">
         <v>195</v>
       </c>
-      <c r="I4" t="s">
-        <v>77</v>
+      <c r="I4" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1611,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>115</v>
@@ -1623,10 +1744,10 @@
         <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1640,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>108</v>
@@ -1652,10 +1773,10 @@
         <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1669,7 +1790,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>109</v>
@@ -1681,10 +1802,10 @@
         <v>209</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1698,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>102</v>
@@ -1710,10 +1831,10 @@
         <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1727,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>104</v>
@@ -1739,10 +1860,10 @@
         <v>198</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1756,7 +1877,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>107</v>
@@ -1768,10 +1889,10 @@
         <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,7 +1906,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>91</v>
@@ -1797,10 +1918,10 @@
         <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1817,7 +1938,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>105</v>
@@ -1832,7 +1953,7 @@
         <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1849,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>102</v>
@@ -1861,10 +1982,10 @@
         <v>201</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,10 +2014,10 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1913,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>86</v>
@@ -1925,10 +2046,10 @@
         <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,7 +2066,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>85</v>
@@ -1957,10 +2078,10 @@
         <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1977,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F17">
         <v>94</v>
@@ -1989,10 +2110,10 @@
         <v>188</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2009,7 +2130,7 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20">
         <v>80</v>
@@ -2021,10 +2142,10 @@
         <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2041,7 +2162,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F21">
         <v>80</v>
@@ -2056,7 +2177,7 @@
         <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2073,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F22">
         <v>75</v>
@@ -2088,7 +2209,7 @@
         <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2096,7 +2217,7 @@
         <v>30000</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>800</v>
@@ -2105,7 +2226,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>93</v>
@@ -2117,10 +2238,10 @@
         <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2128,7 +2249,7 @@
         <v>30000</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>800</v>
@@ -2137,7 +2258,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24">
         <v>98</v>
@@ -2149,10 +2270,10 @@
         <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2160,7 +2281,7 @@
         <v>30000</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>800</v>
@@ -2169,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25">
         <v>105</v>
@@ -2184,11 +2305,517 @@
         <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{C10F971C-EB65-4D52-8185-5CC39B2A6CA6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B667290F-D790-4B2B-8218-27768381760F}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2">
+        <v>106</v>
+      </c>
+      <c r="G2">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>234</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>121</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <v>204</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4">
+        <v>119</v>
+      </c>
+      <c r="G4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>236</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6">
+        <v>111</v>
+      </c>
+      <c r="G6">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>183</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8">
+        <v>111</v>
+      </c>
+      <c r="G8">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>196</v>
+      </c>
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9">
+        <v>102</v>
+      </c>
+      <c r="G9">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>111</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
+      </c>
+      <c r="H10">
+        <v>174</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11">
+        <v>97</v>
+      </c>
+      <c r="G11">
+        <v>88</v>
+      </c>
+      <c r="H11">
+        <v>198</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>106</v>
+      </c>
+      <c r="G12">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>223</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>83</v>
+      </c>
+      <c r="H13">
+        <v>231</v>
+      </c>
+      <c r="I13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30000</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>800</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>30000</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30000</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>192</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="614" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F30F5B-6F46-4ED2-851B-0469C6966AE6}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54FAAC4-E12E-44B3-B611-07AEF27704FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="177">
   <si>
     <t>runtime</t>
   </si>
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="A20" sqref="A20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,16 +2316,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B667290F-D790-4B2B-8218-27768381760F}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A21" sqref="A21:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -2815,6 +2815,48 @@
         <v>174</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>800</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>30000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="619" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54FAAC4-E12E-44B3-B611-07AEF27704FE}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA2B4AB-6DF1-4DA0-B35E-DC287DAEA0FF}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
   <si>
     <t>runtime</t>
   </si>
@@ -572,6 +572,30 @@
   </si>
   <si>
     <t>83m</t>
+  </si>
+  <si>
+    <t>2 (5)</t>
+  </si>
+  <si>
+    <t>2 (5, 5)</t>
+  </si>
+  <si>
+    <t>2 (10)</t>
+  </si>
+  <si>
+    <t>2 (3,3,3)</t>
+  </si>
+  <si>
+    <t>2 (2,2,2,2,2)</t>
+  </si>
+  <si>
+    <t>2 (11x1)</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Marc</t>
   </si>
 </sst>
 </file>
@@ -2316,16 +2340,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B667290F-D790-4B2B-8218-27768381760F}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -2815,12 +2839,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30000</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>800</v>
@@ -2829,12 +2853,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30000</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>800</v>
@@ -2843,18 +2867,120 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30000</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>800</v>
       </c>
       <c r="D20">
         <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22">
+        <v>800</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23">
+        <v>800</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>30000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24">
+        <v>800</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25">
+        <v>800</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>30000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26">
+        <v>800</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>30000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27">
+        <v>800</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA2B4AB-6DF1-4DA0-B35E-DC287DAEA0FF}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB910EF-C794-412E-BFEC-0B8506B31F9B}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
   <si>
     <t>runtime</t>
   </si>
@@ -595,7 +595,52 @@
     <t>Dennis</t>
   </si>
   <si>
-    <t>Marc</t>
+    <t>151m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_28_06_2022_16_41_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_28_06_2022_16_41.pickle</t>
+  </si>
+  <si>
+    <t>150m</t>
+  </si>
+  <si>
+    <t>simulated_annealing_28_06_2022_16_48_schedule.html</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_28_06_2022_16_48.pickle</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_28_06_2022_17_01.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_28_06_2022_17_01_schedule.html</t>
+  </si>
+  <si>
+    <t>164m</t>
+  </si>
+  <si>
+    <t>18_39</t>
+  </si>
+  <si>
+    <t>simulated_annealing_29_06_2022_06_24_schedule.html</t>
+  </si>
+  <si>
+    <t>705m</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_29_06_2022_06_24.pickle</t>
+  </si>
+  <si>
+    <t>pickled_schedule_simulated_annealing_29_06_2022_10_09.pickle</t>
+  </si>
+  <si>
+    <t>simulated_annealing_29_06_2022_10_09_schedule.html</t>
+  </si>
+  <si>
+    <t>931m</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2388,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,7 +2884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30000</v>
       </c>
@@ -2852,8 +2897,26 @@
       <c r="D18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>158</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30000</v>
       </c>
@@ -2866,8 +2929,26 @@
       <c r="D19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -2880,8 +2961,26 @@
       <c r="D20">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20">
+        <v>87</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+      <c r="H20">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30000</v>
       </c>
@@ -2898,7 +2997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>30000</v>
       </c>
@@ -2915,7 +3014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30000</v>
       </c>
@@ -2932,7 +3031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>30000</v>
       </c>
@@ -2946,10 +3045,22 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="F25">
+        <v>74</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30000</v>
       </c>
@@ -2963,10 +3074,22 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="F26">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -2979,8 +3102,8 @@
       <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
+      <c r="J27" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB910EF-C794-412E-BFEC-0B8506B31F9B}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91957477-81AF-4EC2-8A62-02A2C82E03B2}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
   <si>
     <t>runtime</t>
   </si>
@@ -589,9 +589,6 @@
     <t>2 (2,2,2,2,2)</t>
   </si>
   <si>
-    <t>2 (11x1)</t>
-  </si>
-  <si>
     <t>Dennis</t>
   </si>
   <si>
@@ -622,9 +619,6 @@
     <t>164m</t>
   </si>
   <si>
-    <t>18_39</t>
-  </si>
-  <si>
     <t>simulated_annealing_29_06_2022_06_24_schedule.html</t>
   </si>
   <si>
@@ -641,6 +635,9 @@
   </si>
   <si>
     <t>931m</t>
+  </si>
+  <si>
+    <t>2 (11x1) N=5</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2385,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,7 +2895,7 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -2910,10 +2907,10 @@
         <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2930,7 +2927,7 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19">
         <v>85</v>
@@ -2942,10 +2939,10 @@
         <v>168</v>
       </c>
       <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
         <v>190</v>
-      </c>
-      <c r="J19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2962,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20">
         <v>87</v>
@@ -2974,10 +2971,10 @@
         <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2994,7 +2991,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3011,7 +3008,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3028,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3045,7 +3042,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -3054,10 +3051,10 @@
         <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3074,7 +3071,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -3083,10 +3080,10 @@
         <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3094,7 +3091,7 @@
         <v>30000</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C27">
         <v>800</v>
@@ -3102,8 +3099,8 @@
       <c r="D27">
         <v>50</v>
       </c>
-      <c r="J27" t="s">
-        <v>193</v>
+      <c r="G27">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91957477-81AF-4EC2-8A62-02A2C82E03B2}"/>
+  <xr:revisionPtr revIDLastSave="689" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AC22DD-29E0-400A-89F9-40D2F472AAF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
   <si>
     <t>runtime</t>
   </si>
@@ -587,9 +587,6 @@
   </si>
   <si>
     <t>2 (2,2,2,2,2)</t>
-  </si>
-  <si>
-    <t>Dennis</t>
   </si>
   <si>
     <t>151m</t>
@@ -2385,7 +2382,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,7 +2892,7 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -2907,10 +2904,10 @@
         <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2927,7 +2924,7 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19">
         <v>85</v>
@@ -2939,10 +2936,10 @@
         <v>168</v>
       </c>
       <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
         <v>189</v>
-      </c>
-      <c r="J19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2959,7 +2956,7 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20">
         <v>87</v>
@@ -2971,28 +2968,31 @@
         <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>30000</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>800</v>
       </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>182</v>
-      </c>
+      <c r="D22" s="1">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -3007,9 +3007,6 @@
       <c r="D23">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -3024,9 +3021,6 @@
       <c r="D24">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -3042,7 +3036,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -3051,10 +3045,10 @@
         <v>62</v>
       </c>
       <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
         <v>195</v>
-      </c>
-      <c r="J25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3071,7 +3065,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -3080,10 +3074,10 @@
         <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3091,7 +3085,7 @@
         <v>30000</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27">
         <v>800</v>
@@ -3105,5 +3099,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/resultaten.xlsx
+++ b/doc/resultaten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c5535c1db43cb11/Documents/UvA/Minprog/problems/theorie/RoosterRulers/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\University\Year 4\Minor Programmeren\Programmeer theorie\RoosterRulers\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="8_{3E1241F3-0B12-4ED3-A11E-71487FEED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC90ED95-3ED0-483C-8BE7-068F1FF18CDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED32B33F-0711-4FEB-8352-75DEE5CB918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{576B34F7-214E-4A40-AA32-36EEA87275C8}"/>
   </bookViews>
